--- a/Openair_St.Gallen_2018/Openair_St.Gallen_2018_Lineup_(Tag).xlsx
+++ b/Openair_St.Gallen_2018/Openair_St.Gallen_2018_Lineup_(Tag).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\development\c#\ownproject\OpenairLineupExtractor\OpenairLineupExtractor\Openair_St.Gallen_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>Donnerstrag</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Drangsal (GER)</t>
   </si>
   <si>
-    <t>Shame (UK)</t>
-  </si>
-  <si>
     <t>UFO361 (GER)</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>Hecht (CH)</t>
   </si>
   <si>
-    <t>Jess Glynne (UK)</t>
-  </si>
-  <si>
     <t>Beatsteaks (GER)</t>
   </si>
   <si>
@@ -234,6 +228,108 @@
   </si>
   <si>
     <t>Gass &amp; Startrampe</t>
+  </si>
+  <si>
+    <t>Danitsa (CH)</t>
+  </si>
+  <si>
+    <t>Casa Bacardi</t>
+  </si>
+  <si>
+    <t>The Village</t>
+  </si>
+  <si>
+    <t>Sam Madi</t>
+  </si>
+  <si>
+    <t>Manuel Moreno</t>
+  </si>
+  <si>
+    <t>Dario La Mazza</t>
+  </si>
+  <si>
+    <t>Reiser</t>
+  </si>
+  <si>
+    <t>Nuts Cuts</t>
+  </si>
+  <si>
+    <t>Kantarik</t>
+  </si>
+  <si>
+    <t>Redrum</t>
+  </si>
+  <si>
+    <t>Rolf Imhof</t>
+  </si>
+  <si>
+    <t>Juen &amp; Bach</t>
+  </si>
+  <si>
+    <t>Enten Crew Leon &amp; Juli</t>
+  </si>
+  <si>
+    <t>DJ Soulsonic</t>
+  </si>
+  <si>
+    <t>Larcenist</t>
+  </si>
+  <si>
+    <t>Vinylist Sir Dancealot</t>
+  </si>
+  <si>
+    <t>Oliver Aden und Luis Cruz</t>
+  </si>
+  <si>
+    <t>Blood a Run Soundsystem</t>
+  </si>
+  <si>
+    <t>Sabb</t>
+  </si>
+  <si>
+    <t>Smalltown Collective</t>
+  </si>
+  <si>
+    <t>DJ V-Stax</t>
+  </si>
+  <si>
+    <t>Acee</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>P-Roc</t>
+  </si>
+  <si>
+    <t>Ronfa</t>
+  </si>
+  <si>
+    <t>Redshift</t>
+  </si>
+  <si>
+    <t>Gro</t>
+  </si>
+  <si>
+    <t>Certified</t>
+  </si>
+  <si>
+    <t>I-Kim</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Max Power</t>
+  </si>
+  <si>
+    <t>Doobious</t>
+  </si>
+  <si>
+    <t>Johnny Roxx</t>
   </si>
 </sst>
 </file>
@@ -272,71 +368,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -398,14 +449,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
@@ -435,6 +478,38 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -480,6 +555,14 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <fill>
         <patternFill patternType="none">
@@ -562,6 +645,79 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -576,56 +732,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E11"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Donnerstrag" dataDxfId="4"/>
-    <tableColumn id="2" name="Sternenbühne" dataDxfId="3"/>
-    <tableColumn id="4" name="Plaza Bühne" dataDxfId="2"/>
-    <tableColumn id="5" name="Campfire Stage" dataDxfId="1"/>
-    <tableColumn id="6" name="Gass &amp; Startrampe" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:G13" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:G13"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Donnerstrag" dataDxfId="32"/>
+    <tableColumn id="2" name="Sternenbühne" dataDxfId="31"/>
+    <tableColumn id="4" name="Plaza Bühne" dataDxfId="30"/>
+    <tableColumn id="5" name="Campfire Stage" dataDxfId="29"/>
+    <tableColumn id="6" name="Gass &amp; Startrampe" dataDxfId="28"/>
+    <tableColumn id="3" name="Casa Bacardi" dataDxfId="13"/>
+    <tableColumn id="7" name="The Village" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A13:E25" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22">
-  <autoFilter ref="A13:E25"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Freitag" dataDxfId="27"/>
-    <tableColumn id="2" name="Sternenbühne" dataDxfId="26"/>
-    <tableColumn id="3" name="Sitterbühne" dataDxfId="25"/>
-    <tableColumn id="4" name="Plaza Bühne" dataDxfId="24"/>
-    <tableColumn id="5" name="Campfire Stage" dataDxfId="23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A15:G29" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A15:G29"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Freitag" dataDxfId="6"/>
+    <tableColumn id="2" name="Sternenbühne" dataDxfId="5"/>
+    <tableColumn id="3" name="Sitterbühne" dataDxfId="4"/>
+    <tableColumn id="4" name="Plaza Bühne" dataDxfId="3"/>
+    <tableColumn id="5" name="Campfire Stage" dataDxfId="2"/>
+    <tableColumn id="6" name="Casa Bacardi" dataDxfId="1"/>
+    <tableColumn id="7" name="The Village" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A27:E43" totalsRowShown="0" headerRowDxfId="14" dataDxfId="15">
-  <autoFilter ref="A27:E43"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Samstag" dataDxfId="20"/>
-    <tableColumn id="2" name="Sternenbühne" dataDxfId="19"/>
-    <tableColumn id="3" name="Sitterbühne" dataDxfId="18"/>
-    <tableColumn id="4" name="Plaza Bühne" dataDxfId="17"/>
-    <tableColumn id="5" name="Campfire Stage" dataDxfId="16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A31:G50" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A31:G50"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Samstag" dataDxfId="25"/>
+    <tableColumn id="2" name="Sternenbühne" dataDxfId="24"/>
+    <tableColumn id="3" name="Sitterbühne" dataDxfId="23"/>
+    <tableColumn id="4" name="Plaza Bühne" dataDxfId="22"/>
+    <tableColumn id="5" name="Campfire Stage" dataDxfId="21"/>
+    <tableColumn id="6" name="Casa Bacardi" dataDxfId="11"/>
+    <tableColumn id="7" name="The Village" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A45:E54" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
-  <autoFilter ref="A45:E54"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Sonntag" dataDxfId="13"/>
-    <tableColumn id="2" name="Sternenbühne" dataDxfId="12"/>
-    <tableColumn id="3" name="Sitterbühne" dataDxfId="11"/>
-    <tableColumn id="4" name="Plaza Bühne" dataDxfId="10"/>
-    <tableColumn id="5" name="Campfire Stage" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A52:F61" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A52:F61"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Sonntag" dataDxfId="18"/>
+    <tableColumn id="2" name="Sternenbühne" dataDxfId="17"/>
+    <tableColumn id="3" name="Sitterbühne" dataDxfId="16"/>
+    <tableColumn id="4" name="Plaza Bühne" dataDxfId="15"/>
+    <tableColumn id="5" name="Campfire Stage" dataDxfId="14"/>
+    <tableColumn id="6" name="Casa Bacardi" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -928,23 +1091,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:WWJ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="16149" max="16155" width="9.140625" customWidth="1"/>
+    <col min="16156" max="16156" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -958,618 +1127,863 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>0.82291666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>0.84375</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0.88541666666666663</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>0.89583333333333337</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>0.92708333333333337</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>0.94791666666666663</v>
-      </c>
-      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="F12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>0.71875</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>0.80208333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>0.84375</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>0.88541666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>0.9375</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>0.95833333333333337</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>0.84375</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>3.125E-2</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>0.10416666666666667</v>
+        <v>0.9375</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E25" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>3.125E-2</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="5"/>
+      <c r="G28" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>0.53125</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>0.65625</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B32" s="4"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="5"/>
+      <c r="G32" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>0.53125</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>0.75</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+      <c r="F35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>0.78125</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>0.65625</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>0.86458333333333337</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="2"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+      <c r="E40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>3.125E-2</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>0.78125</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>0.11458333333333333</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>0.90625</v>
+      </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>0.46875</v>
+        <v>3.125E-2</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="C47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="5"/>
+      <c r="G48" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="B49" s="4"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>0.75</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" fitToWidth="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F</oddHeader>
   </headerFooter>
